--- a/biology/Médecine/Liste_des_hôpitaux_d'Israël/Liste_des_hôpitaux_d'Israël.xlsx
+++ b/biology/Médecine/Liste_des_hôpitaux_d'Israël/Liste_des_hôpitaux_d'Israël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+          <t>Liste_des_hôpitaux_d'Israël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste des hôpitaux et centres médicaux d'Israël selon leur district et leur ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+          <t>Liste_des_hôpitaux_d'Israël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,31 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Be'er Ya'akov
-Centre médical Assaf Harofeh (hôpital Itzhak Shamir à partir du 4/4/2017)
-Guedera
-Hôpital Ganim
-Hôpital Herzfeld
-Hod Hasharon
-Hôpital Gan Meged
-Chalôm
-Bokirtof ?
-Kfar Saba
-Centre médical Sapir (Hôpital Meir)
-Ness-Tziona
-Hôpital psychiatrique Ness Ziona
-Netanya
-Hôpital Laniado[1].
-Petah Tikva
-Campus Beilinson
-Hôpital psychiatrique Geha
-Centre médical pour enfants Schneider [1]
-Campus Golda (Hôpital HaSharon)
-Hôpital Ramat Marpe
-Raanana
-Hôpital - Centre de rééducation Lowenstein
-Rehovot
-Centre médical Kaplan</t>
+          <t>Be'er Ya'akov</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Centre médical Assaf Harofeh (hôpital Itzhak Shamir à partir du 4/4/2017)</t>
         </is>
       </c>
     </row>
@@ -547,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+          <t>Liste_des_hôpitaux_d'Israël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,55 +556,463 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Guedera</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hôpital Ganim
+Hôpital Herzfeld</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hod Hasharon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hôpital Gan Meged
+Chalôm
+Bokirtof ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kfar Saba</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Centre médical Sapir (Hôpital Meir)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ness-Tziona</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hôpital psychiatrique Ness Ziona</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hôpital Laniado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Campus Beilinson
+Hôpital psychiatrique Geha
+Centre médical pour enfants Schneider 
+Campus Golda (Hôpital HaSharon)
+Hôpital Ramat Marpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Raanana</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hôpital - Centre de rééducation Lowenstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>District Centre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rehovot</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Centre médical Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>District de Haïfa</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Carmel
-Centre médical Dekel
-Hadera
-Centre médical Hillel Yaffe[2]
-Haïfa
-Centre médical Bnei Zion (Rothschild)
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Carmel</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Centre médical Dekel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>District de Haïfa</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hadera</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Centre médical Hillel Yaffe</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>District de Haïfa</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Haïfa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Centre médical Bnei Zion (Rothschild)
 Hôpital Carmel
 Centre médial Elisha
 Hôpital gériatrique Fliman
 Hôpital Italien
-Hôpital Rambam (Ofer)
-Kiryat-Ata
-Hôpital Kiryat Biyamin</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Hôpital Rambam (Ofer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>District de Haïfa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kiryat-Ata</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hôpital Kiryat Biyamin</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>District de Jérusalem</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jérusalem
-Hôpital Familier Alyn Woldenberg
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Jérusalem</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hôpital Familier Alyn Woldenberg
 Hôpital Augusta Victoria
 Hôpital Bikur 'Holim (centre médical Shaare Zedek)
 Centre médical Hadassah (Ein Kerem)
@@ -626,133 +1028,595 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>District Nord</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Afoula
-Centre médical HaEmek
-Akko
-Hôpital psychiatrique Fligelman (Mazra)
-Nazareth
-Hôpital Anglais de Nazareth [3]
-Hôpital Français de Nazareth
-Safed
-Hôpital Hadassah
-Hôpital Rivka Ziv
-Tibériade
-Hôpital Poriya</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Afoula</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Centre médical HaEmek</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>District Nord</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Akko</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hôpital psychiatrique Fligelman (Mazra)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>District Nord</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nazareth</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hôpital Anglais de Nazareth 
+Hôpital Français de Nazareth</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>District Nord</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Safed</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hôpital Hadassah
+Hôpital Rivka Ziv</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>District Nord</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tibériade</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Hôpital Poriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>District Sud</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ashkelon
-Centre médical Barzilai
-Ashdod
-Centre médical Assuta d'Ashdod
-Beer-sheva
-Centre médical Soroka [4]
-Eilat
-Centre médical Yoseftal</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ashkelon</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Centre médical Barzilai</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>District Sud</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ashdod</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Centre médical Assuta d'Ashdod</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>District Sud</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Beer-sheva</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centre médical Soroka </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>District Sud</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Eilat</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Centre médical Yoseftal</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>District de Tel Aviv</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bat Yam
-Centre médical Abarbanel
-Centre médical Bayit Balev
-Bnei Brak
-Hôpital Maayanei Hayeshua
-Herzliya
-Centre médical de Herzliya
-Holon
-Centre Médical Edith Wolfson
-Ramat Gan
-Centre médical Chaim Sheba (hôpital Tel HaShomer)
-Hôpital Ramat Marpe
-Tel Aviv
-Hôpital Asutta
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bat Yam</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Centre médical Abarbanel
+Centre médical Bayit Balev</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>District de Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bnei Brak</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hôpital Maayanei Hayeshua
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>District de Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Herzliya</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Centre médical de Herzliya</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>District de Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Holon</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Centre Médical Edith Wolfson</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>District de Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ramat Gan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Centre médical Chaim Sheba (hôpital Tel HaShomer)
+Hôpital Ramat Marpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>District de Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hôpital Asutta
 Centre gériatrique Naot Hatikhon
 Centre médical Reuth
-Centre médical Sourasky [5]
+Centre médical Sourasky 
 Hôpital Général Ichilov
 Hôpital-Maternité Serlin
 Hôpital pédiatrique Dana
-Centre de rééducation haSourasky
-Jaffa
-Hôpital Tzarfati (français)</t>
+Centre de rééducation haSourasky</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_d'Israël</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_d%27Isra%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>District de Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Jaffa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Hôpital Tzarfati (français)</t>
         </is>
       </c>
     </row>
